--- a/advantage/PHPExcel/bulk_site_excel (21).xlsx
+++ b/advantage/PHPExcel/bulk_site_excel (21).xlsx
@@ -180,9 +180,6 @@
     <t>S1BW001082007</t>
   </si>
   <si>
-    <t>KALYANI (LADIE'S HOSTEL)</t>
-  </si>
-  <si>
     <t>WEST BENGAL</t>
   </si>
   <si>
@@ -208,13 +205,16 @@
   </si>
   <si>
     <t>writers</t>
+  </si>
+  <si>
+    <t>KALYANI (LADIES HOSTEL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +316,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -760,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>44</v>
@@ -808,31 +816,31 @@
         <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>50</v>
@@ -852,6 +860,9 @@
       <c r="AK2" s="6">
         <v>88.439800000000005</v>
       </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="B7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
